--- a/biology/Médecine/Hypotension_artérielle/Hypotension_artérielle.xlsx
+++ b/biology/Médecine/Hypotension_artérielle/Hypotension_artérielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypotension_art%C3%A9rielle</t>
+          <t>Hypotension_artérielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hypotension artérielle correspond à une pression artérielle systolique inférieure à 90 mmHg (le chiffre le plus élevé des deux lorsque l'on prend la pression artérielle).
 Il existe différentes sortes d'hypotension :
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypotension_art%C3%A9rielle</t>
+          <t>Hypotension_artérielle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypotension peut se révéler par une fatigue, des vertiges en position debout, une ouïe incomplète, une vision embrouillée, des chaleurs, mais aussi un mal de jambe. À l'extrême, elle peut désamorcer la pompe cardiaque lors du collapsus.
 Une pression artérielle à moins de 50 mmHg est particulièrement sévère.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypotension_art%C3%A9rielle</t>
+          <t>Hypotension_artérielle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'hypotension (qui induit le malaise vagal) quand elle est forte ou un choc vasoplégique avec syncope quand elle est brutale et forte, peut avoir de nombreuses causes, directes ou indirectes, dont :
 hypovolémie. Cette hypovolémie est absolue (baisse du volume sanguin, à la suite par exemple d'une hémorragie ou d'une prise de sang) ou relative (baisse des résistances périphériques) ;
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypotension_art%C3%A9rielle</t>
+          <t>Hypotension_artérielle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Syndromes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypotension artérielle est un des symptômes du syndrome de Flammer.
 </t>
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypotension_art%C3%A9rielle</t>
+          <t>Hypotension_artérielle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +643,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement d'urgence de l'hypotension repose sur le décubitus avec les membres inférieurs en position surélevée, le remplissage[Comment ?] et les catécholamines.
 Le traitement étiologique repose sur la fermeture d'une plaie hémorragique, l'arrêt d'un traitement anti-hypertenseur ou un rééquilibrage hydro-électrolytique.
